--- a/tests/functional/same_segment/output.xlsx
+++ b/tests/functional/same_segment/output.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="18">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="19">
   <si>
     <t>Wydatki na edukacje</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>Poland</t>
+  </si>
+  <si>
+    <t>Bardzo duża</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +118,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,17 +153,20 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <start/>
       <end/>
@@ -209,11 +239,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="medium">
+        <color rgb="FFCCCCCC"/>
+      </start>
+      <end style="medium">
+        <color rgb="FFCCCCCC"/>
+      </end>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,18 +270,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,15 +282,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,8 +588,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,22 +604,22 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,231 +657,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <v>2013</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2346.4044359999998</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.58</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1.58</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2373.4275520000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>27.023116219999999</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2006.411836</v>
+      </c>
+      <c r="I6" s="11">
+        <v>-353.50415829999997</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2346.4044359999998</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11">
+        <v>617.13599939999995</v>
+      </c>
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.56</v>
+      <c r="J7" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
         <v>2014</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2373.4275520000001</v>
-      </c>
-      <c r="I5" s="12">
-        <v>27.023116219999999</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1.54</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1.54</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1.54</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1.54</v>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11">
+        <v>707.07071840000003</v>
+      </c>
+      <c r="I8" s="11">
+        <v>89.934718939999996</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
         <v>2015</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="12">
-        <v>2006.411836</v>
-      </c>
-      <c r="I6" s="12">
-        <v>-353.50415829999997</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12">
-        <v>662.8423391</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="11">
+        <v>617.13599939999995</v>
+      </c>
+      <c r="I9" s="11">
+        <v>-44.967359469999998</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="K9" s="14">
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2014</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="12">
-        <v>707.07071840000003</v>
-      </c>
-      <c r="I8" s="12">
-        <v>44.228379250000003</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2015</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="12">
-        <v>617.13599939999995</v>
-      </c>
-      <c r="I9" s="12">
-        <v>-67.820529320000006</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="L9" s="13">
         <v>0.47</v>
       </c>
-      <c r="K9" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="M9" s="13">
         <v>0.47</v>
       </c>
     </row>

--- a/tests/functional/same_segment/output.xlsx
+++ b/tests/functional/same_segment/output.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="19">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="18">
   <si>
     <t>Wydatki na edukacje</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Poland</t>
-  </si>
-  <si>
-    <t>Bardzo duża</t>
   </si>
 </sst>
 </file>
@@ -273,6 +270,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,27 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -588,8 +585,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,12 +609,12 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -657,231 +654,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>2013</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8">
         <v>2346.4044359999998</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>1.58</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>1.58</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>2014</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8">
         <v>2373.4275520000001</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>27.023116219999999</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>1.54</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>1.54</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>1.54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>2015</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
         <v>2006.411836</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>-353.50415829999997</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="7">
         <v>1.53</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <v>1.53</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
         <v>1.53</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>2013</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="11">
-        <v>617.13599939999995</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8">
+        <v>662</v>
+      </c>
+      <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>0.42</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>0</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>0.42</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>2014</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8">
         <v>707.07071840000003</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>89.934718939999996</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>0.46</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>0</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="10">
         <v>0.46</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>2015</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8">
         <v>617.13599939999995</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>-44.967359469999998</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <v>0.47</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="10">
         <v>0.47</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <v>0.47</v>
       </c>
     </row>
